--- a/SPEKTRAL_ANALİZ/EXCELLER/mentes_tudes_ssh_model.xlsx
+++ b/SPEKTRAL_ANALİZ/EXCELLER/mentes_tudes_ssh_model.xlsx
@@ -462,10 +462,10 @@
         <v>36251</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08301557239057239</v>
+        <v>0.08007807239057239</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0276275803767838</v>
+        <v>0.09402418753978307</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +479,7 @@
         <v>0.07789153810191679</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05626937898407189</v>
+        <v>0.09075799933688516</v>
       </c>
     </row>
     <row r="4">
@@ -493,7 +493,7 @@
         <v>0.09526062801932368</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09205955213245491</v>
+        <v>0.09610952859224182</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         <v>0.1518588709677419</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1178413853997688</v>
+        <v>0.103620262793537</v>
       </c>
     </row>
     <row r="6">
@@ -521,7 +521,7 @@
         <v>0.174760752688172</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1244898015029095</v>
+        <v>0.1024296241788368</v>
       </c>
     </row>
     <row r="7">
@@ -535,7 +535,7 @@
         <v>0.1471847222222222</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1156589899161285</v>
+        <v>0.08910571399443507</v>
       </c>
     </row>
     <row r="8">
@@ -549,7 +549,7 @@
         <v>0.1171046049555867</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1014533592020658</v>
+        <v>0.07238839502247438</v>
       </c>
     </row>
     <row r="9">
@@ -560,10 +560,10 @@
         <v>36465</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07033804972513744</v>
+        <v>0.08577483790999238</v>
       </c>
       <c r="D9" t="n">
-        <v>0.08806758581762898</v>
+        <v>0.06575029921737258</v>
       </c>
     </row>
     <row r="10">
@@ -574,10 +574,10 @@
         <v>36495</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0684611383824217</v>
+        <v>0.07383924022837067</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07382418303057559</v>
+        <v>0.07486618563651509</v>
       </c>
     </row>
     <row r="11">
@@ -588,10 +588,10 @@
         <v>36526</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00497603489311063</v>
+        <v>0.005884662088729409</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05497289268508309</v>
+        <v>0.09226888530552713</v>
       </c>
     </row>
     <row r="12">
@@ -602,10 +602,10 @@
         <v>36557</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.006597701149425288</v>
+        <v>0.01214220019111323</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0343480469257773</v>
+        <v>0.1044472763038435</v>
       </c>
     </row>
     <row r="13">
@@ -615,12 +615,8 @@
       <c r="B13" s="2" t="n">
         <v>36586</v>
       </c>
-      <c r="C13" t="n">
-        <v>-0.05793621700879766</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.02291168371791483</v>
-      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -630,10 +626,10 @@
         <v>36617</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1404541666666667</v>
+        <v>0.1343673627807633</v>
       </c>
       <c r="D14" t="n">
-        <v>0.03146636707684211</v>
+        <v>0.09727459266663258</v>
       </c>
     </row>
     <row r="15">
@@ -647,7 +643,7 @@
         <v>0.03284700263504611</v>
       </c>
       <c r="D15" t="n">
-        <v>0.06010816568413022</v>
+        <v>0.09400840446373467</v>
       </c>
     </row>
     <row r="16">
@@ -661,7 +657,7 @@
         <v>0.03794444444444444</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0958983388325132</v>
+        <v>0.09935993371909133</v>
       </c>
     </row>
     <row r="17">
@@ -675,7 +671,7 @@
         <v>0.1476659164671346</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1216801720998271</v>
+        <v>0.1068706679203865</v>
       </c>
     </row>
     <row r="18">
@@ -689,7 +685,7 @@
         <v>0.08093010752688172</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1283285882029678</v>
+        <v>0.1056800293056863</v>
       </c>
     </row>
     <row r="19">
@@ -703,7 +699,7 @@
         <v>0.1119398276240668</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1194977766161868</v>
+        <v>0.09235611912128455</v>
       </c>
     </row>
     <row r="20">
@@ -717,7 +713,7 @@
         <v>0.07804337732160312</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1052921459021242</v>
+        <v>0.07563880014932388</v>
       </c>
     </row>
     <row r="21">
@@ -728,10 +724,10 @@
         <v>36831</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1232444444444444</v>
+        <v>0.1212519444444444</v>
       </c>
       <c r="D21" t="n">
-        <v>0.09190637251768731</v>
+        <v>0.06900070434422208</v>
       </c>
     </row>
     <row r="22">
@@ -742,10 +738,10 @@
         <v>36861</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1105681643625192</v>
+        <v>0.08665027223230491</v>
       </c>
       <c r="D22" t="n">
-        <v>0.07766296973063387</v>
+        <v>0.07811659076336462</v>
       </c>
     </row>
     <row r="23">
@@ -756,10 +752,10 @@
         <v>36892</v>
       </c>
       <c r="C23" t="n">
-        <v>0.131104562454843</v>
+        <v>0.09544899477870493</v>
       </c>
       <c r="D23" t="n">
-        <v>0.05881167938514142</v>
+        <v>0.09551929043237663</v>
       </c>
     </row>
     <row r="24">
@@ -770,10 +766,10 @@
         <v>36923</v>
       </c>
       <c r="C24" t="n">
-        <v>0.04132886904761905</v>
+        <v>0.04180971790890269</v>
       </c>
       <c r="D24" t="n">
-        <v>0.03818683362583564</v>
+        <v>0.107697681430693</v>
       </c>
     </row>
     <row r="25">
@@ -787,7 +783,7 @@
         <v>0.1197307152875175</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02675047041797315</v>
+        <v>0.1076376443162121</v>
       </c>
     </row>
     <row r="26">
@@ -798,10 +794,10 @@
         <v>36982</v>
       </c>
       <c r="C26" t="n">
-        <v>0.02849015151515151</v>
+        <v>0.02870971673254282</v>
       </c>
       <c r="D26" t="n">
-        <v>0.03530515377690042</v>
+        <v>0.1005249977934821</v>
       </c>
     </row>
     <row r="27">
@@ -815,7 +811,7 @@
         <v>0.07882410004675082</v>
       </c>
       <c r="D27" t="n">
-        <v>0.06394695238418859</v>
+        <v>0.09725880959058415</v>
       </c>
     </row>
     <row r="28">
@@ -829,7 +825,7 @@
         <v>0.07126902173913044</v>
       </c>
       <c r="D28" t="n">
-        <v>0.09973712553257155</v>
+        <v>0.1026103388459408</v>
       </c>
     </row>
     <row r="29">
@@ -843,7 +839,7 @@
         <v>0.1304556451612903</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1255189587998854</v>
+        <v>0.110121073047236</v>
       </c>
     </row>
     <row r="30">
@@ -857,7 +853,7 @@
         <v>0.1286209677419355</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1321673749030262</v>
+        <v>0.1089304344325358</v>
       </c>
     </row>
     <row r="31">
@@ -868,10 +864,10 @@
         <v>37135</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1763856884057971</v>
+        <v>0.1762357487922705</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1233365633162451</v>
+        <v>0.09560652424813407</v>
       </c>
     </row>
     <row r="32">
@@ -885,7 +881,7 @@
         <v>0.08919863253856943</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1091309326021825</v>
+        <v>0.07888920527617344</v>
       </c>
     </row>
     <row r="33">
@@ -899,7 +895,7 @@
         <v>0.06694166666666666</v>
       </c>
       <c r="D33" t="n">
-        <v>0.09574515921774562</v>
+        <v>0.07225110947107158</v>
       </c>
     </row>
     <row r="34">
@@ -910,10 +906,10 @@
         <v>37226</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06795479797979799</v>
+        <v>0.0671208003952569</v>
       </c>
       <c r="D34" t="n">
-        <v>0.08150175643069224</v>
+        <v>0.08136699589021405</v>
       </c>
     </row>
     <row r="35">
@@ -923,12 +919,8 @@
       <c r="B35" s="2" t="n">
         <v>37257</v>
       </c>
-      <c r="C35" t="n">
-        <v>-0.01224238425925926</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.06265046608519967</v>
-      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -941,7 +933,7 @@
         <v>0.03626897321428572</v>
       </c>
       <c r="D36" t="n">
-        <v>0.04202562032589391</v>
+        <v>0.1109480865575425</v>
       </c>
     </row>
     <row r="37">
@@ -952,10 +944,10 @@
         <v>37316</v>
       </c>
       <c r="C37" t="n">
-        <v>0.07489486909770922</v>
+        <v>0.07674686207502053</v>
       </c>
       <c r="D37" t="n">
-        <v>0.03058925711803145</v>
+        <v>0.1108880494430616</v>
       </c>
     </row>
     <row r="38">
@@ -966,10 +958,10 @@
         <v>37347</v>
       </c>
       <c r="C38" t="n">
-        <v>0.09828053039452496</v>
+        <v>0.09786712642731664</v>
       </c>
       <c r="D38" t="n">
-        <v>0.03914394047695872</v>
+        <v>0.1037754029203316</v>
       </c>
     </row>
     <row r="39">
@@ -980,10 +972,10 @@
         <v>37377</v>
       </c>
       <c r="C39" t="n">
-        <v>0.05351370327700972</v>
+        <v>0.05377742172020748</v>
       </c>
       <c r="D39" t="n">
-        <v>0.06778573908424676</v>
+        <v>0.1005092147174336</v>
       </c>
     </row>
     <row r="40">
@@ -997,7 +989,7 @@
         <v>0.08781863425925926</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1035759122326297</v>
+        <v>0.1058607439727903</v>
       </c>
     </row>
     <row r="41">
@@ -1011,7 +1003,7 @@
         <v>0.1232972670250896</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1293577454999437</v>
+        <v>0.1133714781740855</v>
       </c>
     </row>
     <row r="42">
@@ -1025,7 +1017,7 @@
         <v>0.1574639336917563</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1360061616030845</v>
+        <v>0.1121808395593853</v>
       </c>
     </row>
     <row r="43">
@@ -1039,7 +1031,7 @@
         <v>0.1881474537037037</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1271753500163035</v>
+        <v>0.09885692937498369</v>
       </c>
     </row>
     <row r="44">
@@ -1053,7 +1045,7 @@
         <v>0.1453149641577061</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1129697193022408</v>
+        <v>0.08213961040302288</v>
       </c>
     </row>
     <row r="45">
@@ -1064,10 +1056,10 @@
         <v>37561</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1830727208898857</v>
+        <v>0.182857277049306</v>
       </c>
       <c r="D45" t="n">
-        <v>0.09958394591780394</v>
+        <v>0.07550151459792107</v>
       </c>
     </row>
     <row r="46">
@@ -1078,10 +1070,10 @@
         <v>37591</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1560114247311828</v>
+        <v>0.1559856630824373</v>
       </c>
       <c r="D46" t="n">
-        <v>0.08534054313075058</v>
+        <v>0.08461740101706355</v>
       </c>
     </row>
     <row r="47">
@@ -1092,10 +1084,10 @@
         <v>37622</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1623229751051893</v>
+        <v>0.162161990889156</v>
       </c>
       <c r="D47" t="n">
-        <v>0.06648925278525801</v>
+        <v>0.1020201006860757</v>
       </c>
     </row>
     <row r="48">
@@ -1106,10 +1098,10 @@
         <v>37653</v>
       </c>
       <c r="C48" t="n">
-        <v>0.03686511017450459</v>
+        <v>0.04799442367660967</v>
       </c>
       <c r="D48" t="n">
-        <v>0.04586440702595236</v>
+        <v>0.114198491684392</v>
       </c>
     </row>
     <row r="49">
@@ -1119,12 +1111,8 @@
       <c r="B49" s="2" t="n">
         <v>37681</v>
       </c>
-      <c r="C49" t="n">
-        <v>-0.0544546160130719</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.03442804381808977</v>
-      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1134,11 +1122,9 @@
         <v>37712</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.08805</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.04298272717701702</v>
-      </c>
+        <v>0.09168663194444444</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1148,10 +1134,10 @@
         <v>37742</v>
       </c>
       <c r="C51" t="n">
-        <v>0.09168663194444444</v>
+        <v>0.08766113153594771</v>
       </c>
       <c r="D51" t="n">
-        <v>0.07162452578430506</v>
+        <v>0.1070258080471811</v>
       </c>
     </row>
     <row r="52">
@@ -1162,10 +1148,10 @@
         <v>37773</v>
       </c>
       <c r="C52" t="n">
-        <v>0.08766113153594771</v>
+        <v>0.1362093413978495</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1074146989326883</v>
+        <v>0.1037596198442831</v>
       </c>
     </row>
     <row r="53">
@@ -1176,10 +1162,10 @@
         <v>37803</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1362093413978495</v>
+        <v>0.1450631720430108</v>
       </c>
       <c r="D53" t="n">
-        <v>0.133196532200002</v>
+        <v>0.1091111490996399</v>
       </c>
     </row>
     <row r="54">
@@ -1190,10 +1176,10 @@
         <v>37834</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1450631720430108</v>
+        <v>0.1069385101010101</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1398449483031428</v>
+        <v>0.1166218833009349</v>
       </c>
     </row>
     <row r="55">
@@ -1204,10 +1190,10 @@
         <v>37865</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1069385101010101</v>
+        <v>0.1523048515104967</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1310141367163618</v>
+        <v>0.1154312446862348</v>
       </c>
     </row>
     <row r="56">
@@ -1218,10 +1204,10 @@
         <v>37895</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1534690860215054</v>
+        <v>0.08831672430830038</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1168085060022991</v>
+        <v>0.1021073345018331</v>
       </c>
     </row>
     <row r="57">
@@ -1232,10 +1218,10 @@
         <v>37926</v>
       </c>
       <c r="C57" t="n">
-        <v>0.08749532004830919</v>
+        <v>0.09798194736637057</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1034227326178622</v>
+        <v>0.08539001552987238</v>
       </c>
     </row>
     <row r="58">
@@ -1246,10 +1232,10 @@
         <v>37956</v>
       </c>
       <c r="C58" t="n">
-        <v>0.09798194736637057</v>
+        <v>0.1990906137992832</v>
       </c>
       <c r="D58" t="n">
-        <v>0.08917932983080891</v>
+        <v>0.07875191972477057</v>
       </c>
     </row>
     <row r="59">
@@ -1260,10 +1246,10 @@
         <v>37987</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1992945788530466</v>
+        <v>0.05823770649848236</v>
       </c>
       <c r="D59" t="n">
-        <v>0.07032803948531646</v>
+        <v>0.08786780614391304</v>
       </c>
     </row>
     <row r="60">
@@ -1273,11 +1259,9 @@
       <c r="B60" s="2" t="n">
         <v>38018</v>
       </c>
-      <c r="C60" t="n">
-        <v>0.05272713122605364</v>
-      </c>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
-        <v>0.04970319372601057</v>
+        <v>0.105270505812925</v>
       </c>
     </row>
     <row r="61">
@@ -1288,11 +1272,9 @@
         <v>38047</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.0149706541218638</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.0382668305181481</v>
-      </c>
+        <v>0.03798996179444549</v>
+      </c>
+      <c r="D61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1302,10 +1284,10 @@
         <v>38078</v>
       </c>
       <c r="C62" t="n">
-        <v>0.03531349134460548</v>
+        <v>0.1217245118760064</v>
       </c>
       <c r="D62" t="n">
-        <v>0.04682151387707521</v>
+        <v>0.1173888596967606</v>
       </c>
     </row>
     <row r="63">
@@ -1316,10 +1298,10 @@
         <v>38108</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1217245118760064</v>
+        <v>0.08977083333333334</v>
       </c>
       <c r="D63" t="n">
-        <v>0.07546331248436336</v>
+        <v>0.1102762131740306</v>
       </c>
     </row>
     <row r="64">
@@ -1330,10 +1312,10 @@
         <v>38139</v>
       </c>
       <c r="C64" t="n">
-        <v>0.08977083333333334</v>
+        <v>0.1051646505376344</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1112534856327464</v>
+        <v>0.1070100249711326</v>
       </c>
     </row>
     <row r="65">
@@ -1344,10 +1326,10 @@
         <v>38169</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1051646505376344</v>
+        <v>0.1704066980286738</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1370353189000605</v>
+        <v>0.1123615542264893</v>
       </c>
     </row>
     <row r="66">
@@ -1358,10 +1340,10 @@
         <v>38200</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1704066980286738</v>
+        <v>0.109915625</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1436837350032011</v>
+        <v>0.1198722884277845</v>
       </c>
     </row>
     <row r="67">
@@ -1372,10 +1354,10 @@
         <v>38231</v>
       </c>
       <c r="C67" t="n">
-        <v>0.109915625</v>
+        <v>0.1337190860215054</v>
       </c>
       <c r="D67" t="n">
-        <v>0.1348529234164201</v>
+        <v>0.1186816498130843</v>
       </c>
     </row>
     <row r="68">
@@ -1386,10 +1368,10 @@
         <v>38261</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1337190860215054</v>
+        <v>0.1281150412640902</v>
       </c>
       <c r="D68" t="n">
-        <v>0.1206472927023574</v>
+        <v>0.1053577396286826</v>
       </c>
     </row>
     <row r="69">
@@ -1400,10 +1382,10 @@
         <v>38292</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1276805555555555</v>
+        <v>0.05304636480167225</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1072615193179206</v>
+        <v>0.0886404206567218</v>
       </c>
     </row>
     <row r="70">
@@ -1414,10 +1396,10 @@
         <v>38322</v>
       </c>
       <c r="C70" t="n">
-        <v>0.05056633955007903</v>
+        <v>0.07475027021592082</v>
       </c>
       <c r="D70" t="n">
-        <v>0.09301811653086711</v>
+        <v>0.08200232485162007</v>
       </c>
     </row>
     <row r="71">
@@ -1428,10 +1410,10 @@
         <v>38353</v>
       </c>
       <c r="C71" t="n">
-        <v>0.06957795698924731</v>
+        <v>0.06057794832733691</v>
       </c>
       <c r="D71" t="n">
-        <v>0.07416682618537479</v>
+        <v>0.09111821127076263</v>
       </c>
     </row>
     <row r="72">
@@ -1442,10 +1424,10 @@
         <v>38384</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0473788658126294</v>
+        <v>0.05428020784634564</v>
       </c>
       <c r="D72" t="n">
-        <v>0.05354198042606888</v>
+        <v>0.1085209109397745</v>
       </c>
     </row>
     <row r="73">
@@ -1456,10 +1438,10 @@
         <v>38412</v>
       </c>
       <c r="C73" t="n">
-        <v>0.05407840501792114</v>
+        <v>0.04987731957735247</v>
       </c>
       <c r="D73" t="n">
-        <v>0.04210561721820639</v>
+        <v>0.120699301938091</v>
       </c>
     </row>
     <row r="74">
@@ -1470,10 +1452,10 @@
         <v>38443</v>
       </c>
       <c r="C74" t="n">
-        <v>0.04722650462962963</v>
+        <v>0.07764448924731182</v>
       </c>
       <c r="D74" t="n">
-        <v>0.05066030057713365</v>
+        <v>0.12063926482361</v>
       </c>
     </row>
     <row r="75">
@@ -1484,10 +1466,10 @@
         <v>38473</v>
       </c>
       <c r="C75" t="n">
-        <v>0.07764448924731182</v>
+        <v>0.1042005787037037</v>
       </c>
       <c r="D75" t="n">
-        <v>0.07930209918442144</v>
+        <v>0.1135266183008801</v>
       </c>
     </row>
     <row r="76">
@@ -1498,10 +1480,10 @@
         <v>38504</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1042005787037037</v>
+        <v>0.1514830869175627</v>
       </c>
       <c r="D76" t="n">
-        <v>0.1150922723328046</v>
+        <v>0.1102604300979821</v>
       </c>
     </row>
     <row r="77">
@@ -1512,10 +1494,10 @@
         <v>38534</v>
       </c>
       <c r="C77" t="n">
-        <v>0.1514830869175627</v>
+        <v>0.194869886629266</v>
       </c>
       <c r="D77" t="n">
-        <v>0.1408741056001188</v>
+        <v>0.1156119593533388</v>
       </c>
     </row>
     <row r="78">
@@ -1526,10 +1508,10 @@
         <v>38565</v>
       </c>
       <c r="C78" t="n">
-        <v>0.194869886629266</v>
+        <v>0.1374069444444444</v>
       </c>
       <c r="D78" t="n">
-        <v>0.1475225217032594</v>
+        <v>0.123122693554634</v>
       </c>
     </row>
     <row r="79">
@@ -1540,10 +1522,10 @@
         <v>38596</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1374069444444444</v>
+        <v>0.05580645648278011</v>
       </c>
       <c r="D79" t="n">
-        <v>0.1386917101164784</v>
+        <v>0.1219320549399339</v>
       </c>
     </row>
     <row r="80">
@@ -1554,10 +1536,10 @@
         <v>38626</v>
       </c>
       <c r="C80" t="n">
-        <v>0.05580645648278011</v>
+        <v>0.04419978956228956</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1244860794024159</v>
+        <v>0.1086081447555321</v>
       </c>
     </row>
     <row r="81">
@@ -1568,10 +1550,10 @@
         <v>38657</v>
       </c>
       <c r="C81" t="n">
-        <v>0.043259375</v>
+        <v>0.08461852306373695</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1111003060179789</v>
+        <v>0.09189082578357149</v>
       </c>
     </row>
     <row r="82">
@@ -1581,11 +1563,9 @@
       <c r="B82" s="2" t="n">
         <v>38687</v>
       </c>
-      <c r="C82" t="n">
-        <v>0.08461852306373695</v>
-      </c>
+      <c r="C82" t="inlineStr"/>
       <c r="D82" t="n">
-        <v>0.09685690323092544</v>
+        <v>0.08525272997846957</v>
       </c>
     </row>
     <row r="83">
@@ -1596,11 +1576,9 @@
         <v>38718</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.02066467488701885</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0.07800561288543313</v>
-      </c>
+        <v>0.03114262941919192</v>
+      </c>
+      <c r="D83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -1610,10 +1588,10 @@
         <v>38749</v>
       </c>
       <c r="C84" t="n">
-        <v>0.02972519841269841</v>
+        <v>0.1305325648667602</v>
       </c>
       <c r="D84" t="n">
-        <v>0.05738076712612746</v>
+        <v>0.111771316066624</v>
       </c>
     </row>
     <row r="85">
@@ -1624,10 +1602,10 @@
         <v>38777</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1305325648667602</v>
+        <v>0.070051731078905</v>
       </c>
       <c r="D85" t="n">
-        <v>0.04594440391826471</v>
+        <v>0.1239497070649404</v>
       </c>
     </row>
     <row r="86">
@@ -1638,10 +1616,10 @@
         <v>38808</v>
       </c>
       <c r="C86" t="n">
-        <v>0.06983414351851852</v>
+        <v>0.02814650537634409</v>
       </c>
       <c r="D86" t="n">
-        <v>0.05449908727719196</v>
+        <v>0.1238896699504595</v>
       </c>
     </row>
     <row r="87">
@@ -1652,10 +1630,10 @@
         <v>38838</v>
       </c>
       <c r="C87" t="n">
-        <v>0.02814650537634409</v>
+        <v>0.07117291666666666</v>
       </c>
       <c r="D87" t="n">
-        <v>0.08314088588448021</v>
+        <v>0.1167770234277296</v>
       </c>
     </row>
     <row r="88">
@@ -1666,10 +1644,10 @@
         <v>38869</v>
       </c>
       <c r="C88" t="n">
-        <v>0.07117291666666666</v>
+        <v>0.1007586245519713</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1189310590328629</v>
+        <v>0.1135108352248317</v>
       </c>
     </row>
     <row r="89">
@@ -1680,10 +1658,10 @@
         <v>38899</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1007586245519713</v>
+        <v>0.1778625672043011</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1447128923001768</v>
+        <v>0.1188623644801883</v>
       </c>
     </row>
     <row r="90">
@@ -1694,10 +1672,10 @@
         <v>38930</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1778625672043011</v>
+        <v>0.1344040157004831</v>
       </c>
       <c r="D90" t="n">
-        <v>0.1513613084033177</v>
+        <v>0.1263730986814834</v>
       </c>
     </row>
     <row r="91">
@@ -1708,10 +1686,10 @@
         <v>38961</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1344040157004831</v>
+        <v>0.1552408154121864</v>
       </c>
       <c r="D91" t="n">
-        <v>0.1425304968165367</v>
+        <v>0.1251824600667833</v>
       </c>
     </row>
     <row r="92">
@@ -1722,10 +1700,10 @@
         <v>38991</v>
       </c>
       <c r="C92" t="n">
-        <v>0.1552408154121864</v>
+        <v>0.1011640801127214</v>
       </c>
       <c r="D92" t="n">
-        <v>0.128324866102474</v>
+        <v>0.1118585498823816</v>
       </c>
     </row>
     <row r="93">
@@ -1735,11 +1713,9 @@
       <c r="B93" s="2" t="n">
         <v>39022</v>
       </c>
-      <c r="C93" t="n">
-        <v>0.1011750754830918</v>
-      </c>
+      <c r="C93" t="inlineStr"/>
       <c r="D93" t="n">
-        <v>0.1149390927180372</v>
+        <v>0.09514123091042082</v>
       </c>
     </row>
     <row r="94">
@@ -1749,12 +1725,8 @@
       <c r="B94" s="2" t="n">
         <v>39052</v>
       </c>
-      <c r="C94" t="n">
-        <v>-0.07279170075580489</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.100695689930984</v>
-      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -1764,11 +1736,9 @@
         <v>39083</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.0284638440860215</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0.08184439958549145</v>
-      </c>
+        <v>0.03912927165678524</v>
+      </c>
+      <c r="D95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -1777,11 +1747,9 @@
       <c r="B96" s="2" t="n">
         <v>39114</v>
       </c>
-      <c r="C96" t="n">
-        <v>0.03785700267425811</v>
-      </c>
+      <c r="C96" t="inlineStr"/>
       <c r="D96" t="n">
-        <v>0.06121955382618555</v>
+        <v>0.1150217211934735</v>
       </c>
     </row>
     <row r="97">
@@ -1792,11 +1760,9 @@
         <v>39142</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.03870468857832988</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0.04978319061832302</v>
-      </c>
+        <v>0.001317399538866927</v>
+      </c>
+      <c r="D97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -1806,11 +1772,9 @@
         <v>39173</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.1002468208874459</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0.05833787397725027</v>
-      </c>
+        <v>0.11572734375</v>
+      </c>
+      <c r="D98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -1820,10 +1784,10 @@
         <v>39203</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.001516666666666672</v>
+        <v>0.09931209935897437</v>
       </c>
       <c r="D99" t="n">
-        <v>0.08697967258453802</v>
+        <v>0.127140075077309</v>
       </c>
     </row>
     <row r="100">
@@ -1834,10 +1798,10 @@
         <v>39234</v>
       </c>
       <c r="C100" t="n">
-        <v>0.11572734375</v>
+        <v>0.1599066558441558</v>
       </c>
       <c r="D100" t="n">
-        <v>0.1227698457329213</v>
+        <v>0.1200274285545791</v>
       </c>
     </row>
     <row r="101">
@@ -1848,10 +1812,10 @@
         <v>39264</v>
       </c>
       <c r="C101" t="n">
-        <v>0.09931209935897437</v>
+        <v>0.06383333333333334</v>
       </c>
       <c r="D101" t="n">
-        <v>0.1485516790002354</v>
+        <v>0.1167612403516811</v>
       </c>
     </row>
     <row r="102">
@@ -1862,10 +1826,10 @@
         <v>39295</v>
       </c>
       <c r="C102" t="n">
-        <v>0.1599066558441558</v>
+        <v>0.1121401209677419</v>
       </c>
       <c r="D102" t="n">
-        <v>0.155200095103376</v>
+        <v>0.1221127696070378</v>
       </c>
     </row>
     <row r="103">
@@ -1876,10 +1840,10 @@
         <v>39326</v>
       </c>
       <c r="C103" t="n">
-        <v>0.06383333333333334</v>
+        <v>0.09257205968173922</v>
       </c>
       <c r="D103" t="n">
-        <v>0.1463692835165951</v>
+        <v>0.129623503808333</v>
       </c>
     </row>
     <row r="104">
@@ -1890,10 +1854,10 @@
         <v>39356</v>
       </c>
       <c r="C104" t="n">
-        <v>0.1121401209677419</v>
+        <v>0.0700121489907245</v>
       </c>
       <c r="D104" t="n">
-        <v>0.1321636528025325</v>
+        <v>0.1284328651936327</v>
       </c>
     </row>
     <row r="105">
@@ -1904,10 +1868,10 @@
         <v>39387</v>
       </c>
       <c r="C105" t="n">
-        <v>0.09301914863726145</v>
+        <v>0.002806478428848695</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1187778794180956</v>
+        <v>0.1151089550092311</v>
       </c>
     </row>
     <row r="106">
@@ -1918,10 +1882,10 @@
         <v>39417</v>
       </c>
       <c r="C106" t="n">
-        <v>0.06700245455709165</v>
+        <v>0.06328598630312339</v>
       </c>
       <c r="D106" t="n">
-        <v>0.1045344766310421</v>
+        <v>0.0983916360372705</v>
       </c>
     </row>
     <row r="107">
@@ -1932,10 +1896,10 @@
         <v>39448</v>
       </c>
       <c r="C107" t="n">
-        <v>0.00198729518689196</v>
+        <v>0.07041145833333334</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0856831862855495</v>
+        <v>0.09175354023216856</v>
       </c>
     </row>
     <row r="108">
@@ -1946,11 +1910,9 @@
         <v>39479</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.1371859560899375</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.06505834052624387</v>
-      </c>
+        <v>0.05560726686507936</v>
+      </c>
+      <c r="D108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -1960,10 +1922,10 @@
         <v>39508</v>
       </c>
       <c r="C109" t="n">
-        <v>0.06262757616487455</v>
+        <v>0.08384131944444445</v>
       </c>
       <c r="D109" t="n">
-        <v>0.05362197731838139</v>
+        <v>0.1008694266513111</v>
       </c>
     </row>
     <row r="110">
@@ -1974,10 +1936,10 @@
         <v>39539</v>
       </c>
       <c r="C110" t="n">
-        <v>0.07041145833333334</v>
+        <v>0.08874973704056521</v>
       </c>
       <c r="D110" t="n">
-        <v>0.06217666067730857</v>
+        <v>0.1182721263203232</v>
       </c>
     </row>
     <row r="111">
@@ -1988,10 +1950,10 @@
         <v>39569</v>
       </c>
       <c r="C111" t="n">
-        <v>0.05559077380952381</v>
+        <v>0.1388090277777778</v>
       </c>
       <c r="D111" t="n">
-        <v>0.09081845928459634</v>
+        <v>0.1304505173186395</v>
       </c>
     </row>
     <row r="112">
@@ -2002,10 +1964,10 @@
         <v>39600</v>
       </c>
       <c r="C112" t="n">
-        <v>0.08384131944444445</v>
+        <v>0.156757786676837</v>
       </c>
       <c r="D112" t="n">
-        <v>0.12660863243298</v>
+        <v>0.1303904802041586</v>
       </c>
     </row>
     <row r="113">
@@ -2016,10 +1978,10 @@
         <v>39630</v>
       </c>
       <c r="C113" t="n">
-        <v>0.08874973704056521</v>
+        <v>0.0485693275673991</v>
       </c>
       <c r="D113" t="n">
-        <v>0.1523904657002937</v>
+        <v>0.1232778336814286</v>
       </c>
     </row>
     <row r="114">
@@ -2030,10 +1992,10 @@
         <v>39661</v>
       </c>
       <c r="C114" t="n">
-        <v>0.1388090277777778</v>
+        <v>0.1093114583333333</v>
       </c>
       <c r="D114" t="n">
-        <v>0.1590388818034344</v>
+        <v>0.1200116454785306</v>
       </c>
     </row>
     <row r="115">
@@ -2044,10 +2006,10 @@
         <v>39692</v>
       </c>
       <c r="C115" t="n">
-        <v>0.156757786676837</v>
+        <v>0.1175384866370578</v>
       </c>
       <c r="D115" t="n">
-        <v>0.1502080702166534</v>
+        <v>0.1253631747338874</v>
       </c>
     </row>
     <row r="116">
@@ -2057,11 +2019,9 @@
       <c r="B116" s="2" t="n">
         <v>39722</v>
       </c>
-      <c r="C116" t="n">
-        <v>0.0485693275673991</v>
-      </c>
+      <c r="C116" t="inlineStr"/>
       <c r="D116" t="n">
-        <v>0.1360024395025908</v>
+        <v>0.1328739089351824</v>
       </c>
     </row>
     <row r="117">
@@ -2072,10 +2032,10 @@
         <v>39753</v>
       </c>
       <c r="C117" t="n">
-        <v>0.1092999849033816</v>
+        <v>0.04507924563359345</v>
       </c>
       <c r="D117" t="n">
-        <v>0.1226166661181537</v>
+        <v>0.1316832703204824</v>
       </c>
     </row>
     <row r="118">
@@ -2086,10 +2046,10 @@
         <v>39783</v>
       </c>
       <c r="C118" t="n">
-        <v>0.1153542884135889</v>
+        <v>0.1022274131363805</v>
       </c>
       <c r="D118" t="n">
-        <v>0.1083732633311004</v>
+        <v>0.1183593601360806</v>
       </c>
     </row>
     <row r="119">
@@ -2100,11 +2060,9 @@
         <v>39814</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.02447951802248677</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0.08952197298560811</v>
-      </c>
+        <v>0.1943167708333333</v>
+      </c>
+      <c r="D119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -2114,10 +2072,10 @@
         <v>39845</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0445625232255667</v>
+        <v>0.1538710797491039</v>
       </c>
       <c r="D120" t="n">
-        <v>0.06889712722630219</v>
+        <v>0.09500394535901807</v>
       </c>
     </row>
     <row r="121">
@@ -2128,10 +2086,10 @@
         <v>39873</v>
       </c>
       <c r="C121" t="n">
-        <v>0.1011622770345596</v>
+        <v>0.1188504704301075</v>
       </c>
       <c r="D121" t="n">
-        <v>0.05746076401843968</v>
+        <v>0.1041198317781606</v>
       </c>
     </row>
     <row r="122">
@@ -2141,7 +2099,9 @@
       <c r="B122" s="2" t="n">
         <v>39904</v>
       </c>
-      <c r="C122" t="inlineStr"/>
+      <c r="C122" t="n">
+        <v>0.1210023148148148</v>
+      </c>
       <c r="D122" t="inlineStr"/>
     </row>
     <row r="123">
@@ -2151,7 +2111,9 @@
       <c r="B123" s="2" t="n">
         <v>39934</v>
       </c>
-      <c r="C123" t="inlineStr"/>
+      <c r="C123" t="n">
+        <v>0.1809640456989247</v>
+      </c>
       <c r="D123" t="inlineStr"/>
     </row>
     <row r="124">
@@ -2162,10 +2124,10 @@
         <v>39965</v>
       </c>
       <c r="C124" t="n">
-        <v>0.1943167708333333</v>
+        <v>0.1645008561939268</v>
       </c>
       <c r="D124" t="n">
-        <v>0.1304474191330378</v>
+        <v>0.1215225314471725</v>
       </c>
     </row>
     <row r="125">
@@ -2175,11 +2137,9 @@
       <c r="B125" s="2" t="n">
         <v>39995</v>
       </c>
-      <c r="C125" t="n">
-        <v>0.1538710797491039</v>
-      </c>
+      <c r="C125" t="inlineStr"/>
       <c r="D125" t="n">
-        <v>0.1562292524003518</v>
+        <v>0.133700922445489</v>
       </c>
     </row>
     <row r="126">
@@ -2190,10 +2150,10 @@
         <v>40026</v>
       </c>
       <c r="C126" t="n">
-        <v>0.1188504704301075</v>
+        <v>0.228273069767093</v>
       </c>
       <c r="D126" t="n">
-        <v>0.1628776685034927</v>
+        <v>0.1336408853310081</v>
       </c>
     </row>
     <row r="127">
@@ -2204,10 +2164,10 @@
         <v>40057</v>
       </c>
       <c r="C127" t="n">
-        <v>0.1210023148148148</v>
+        <v>0.2470134978560179</v>
       </c>
       <c r="D127" t="n">
-        <v>0.1540468569167117</v>
+        <v>0.1265282388082782</v>
       </c>
     </row>
     <row r="128">
@@ -2218,10 +2178,10 @@
         <v>40087</v>
       </c>
       <c r="C128" t="n">
-        <v>0.1809640456989247</v>
+        <v>0.1180075983593967</v>
       </c>
       <c r="D128" t="n">
-        <v>0.139841226202649</v>
+        <v>0.1232620506053801</v>
       </c>
     </row>
     <row r="129">
@@ -2232,10 +2192,10 @@
         <v>40118</v>
       </c>
       <c r="C129" t="n">
-        <v>0.1645288654531861</v>
+        <v>0.04985636574074074</v>
       </c>
       <c r="D129" t="n">
-        <v>0.126455452818212</v>
+        <v>0.1286135798607368</v>
       </c>
     </row>
     <row r="130">
@@ -2246,11 +2206,9 @@
         <v>40148</v>
       </c>
       <c r="C130" t="n">
-        <v>0.3190484991039427</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0.112212050031159</v>
-      </c>
+        <v>0.1315987903225806</v>
+      </c>
+      <c r="D130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -2260,10 +2218,10 @@
         <v>40179</v>
       </c>
       <c r="C131" t="n">
-        <v>0.253191644265233</v>
+        <v>0.2191039653784219</v>
       </c>
       <c r="D131" t="n">
-        <v>0.09336075968566646</v>
+        <v>0.1349336754473318</v>
       </c>
     </row>
     <row r="132">
@@ -2274,10 +2232,10 @@
         <v>40210</v>
       </c>
       <c r="C132" t="n">
-        <v>0.2650646458764666</v>
+        <v>0.1716780913978495</v>
       </c>
       <c r="D132" t="n">
-        <v>0.07273591392636053</v>
+        <v>0.1216097652629301</v>
       </c>
     </row>
     <row r="133">
@@ -2288,10 +2246,10 @@
         <v>40238</v>
       </c>
       <c r="C133" t="n">
-        <v>0.1196214259530792</v>
+        <v>0.2107032930107527</v>
       </c>
       <c r="D133" t="n">
-        <v>0.06129955071849798</v>
+        <v>0.1048924462909693</v>
       </c>
     </row>
     <row r="134">
@@ -2302,10 +2260,10 @@
         <v>40269</v>
       </c>
       <c r="C134" t="n">
-        <v>0.04985636574074074</v>
+        <v>0.2179892210144928</v>
       </c>
       <c r="D134" t="n">
-        <v>0.06985423407742544</v>
+        <v>0.09825435048586757</v>
       </c>
     </row>
     <row r="135">
@@ -2316,10 +2274,10 @@
         <v>40299</v>
       </c>
       <c r="C135" t="n">
-        <v>0.1315987903225806</v>
+        <v>0.2061883619682094</v>
       </c>
       <c r="D135" t="n">
-        <v>0.09849603268471292</v>
+        <v>0.1073702369050099</v>
       </c>
     </row>
     <row r="136">
@@ -2329,11 +2287,9 @@
       <c r="B136" s="2" t="n">
         <v>40330</v>
       </c>
-      <c r="C136" t="n">
-        <v>0.2192945601851852</v>
-      </c>
+      <c r="C136" t="inlineStr"/>
       <c r="D136" t="n">
-        <v>0.1342862058330961</v>
+        <v>0.124772936574022</v>
       </c>
     </row>
     <row r="137">
@@ -2343,11 +2299,9 @@
       <c r="B137" s="2" t="n">
         <v>40360</v>
       </c>
-      <c r="C137" t="n">
-        <v>0.1716780913978495</v>
-      </c>
+      <c r="C137" t="inlineStr"/>
       <c r="D137" t="n">
-        <v>0.1600680391004103</v>
+        <v>0.1369513275723385</v>
       </c>
     </row>
     <row r="138">
@@ -2358,10 +2312,10 @@
         <v>40391</v>
       </c>
       <c r="C138" t="n">
-        <v>0.2107032930107527</v>
+        <v>0.1415947071521668</v>
       </c>
       <c r="D138" t="n">
-        <v>0.166716455203551</v>
+        <v>0.1368912904578575</v>
       </c>
     </row>
     <row r="139">
@@ -2372,10 +2326,10 @@
         <v>40422</v>
       </c>
       <c r="C139" t="n">
-        <v>0.2179892210144928</v>
+        <v>0.1118949652777778</v>
       </c>
       <c r="D139" t="n">
-        <v>0.1578856436167698</v>
+        <v>0.1297786439351275</v>
       </c>
     </row>
     <row r="140">
@@ -2385,11 +2339,9 @@
       <c r="B140" s="2" t="n">
         <v>40452</v>
       </c>
-      <c r="C140" t="n">
-        <v>0.2065342157550257</v>
-      </c>
+      <c r="C140" t="inlineStr"/>
       <c r="D140" t="n">
-        <v>0.1436800129027075</v>
+        <v>0.1265124557322296</v>
       </c>
     </row>
     <row r="141">
@@ -2400,11 +2352,9 @@
         <v>40483</v>
       </c>
       <c r="C141" t="n">
-        <v>0.2528976851851852</v>
-      </c>
-      <c r="D141" t="n">
-        <v>0.1302942395182705</v>
-      </c>
+        <v>0.02341203703703704</v>
+      </c>
+      <c r="D141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -2414,11 +2364,9 @@
         <v>40513</v>
       </c>
       <c r="C142" t="n">
-        <v>0.305310030972417</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0.116050836731217</v>
-      </c>
+        <v>0.09350436827956989</v>
+      </c>
+      <c r="D142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -2428,10 +2376,10 @@
         <v>40544</v>
       </c>
       <c r="C143" t="n">
-        <v>0.1415947071521668</v>
+        <v>0.1595267210144928</v>
       </c>
       <c r="D143" t="n">
-        <v>0.09719954638572503</v>
+        <v>0.1381840805741812</v>
       </c>
     </row>
     <row r="144">
@@ -2442,10 +2390,10 @@
         <v>40575</v>
       </c>
       <c r="C144" t="n">
-        <v>0.1150623759920635</v>
+        <v>0.2101451918377322</v>
       </c>
       <c r="D144" t="n">
-        <v>0.07657470062641859</v>
+        <v>0.1248601703897794</v>
       </c>
     </row>
     <row r="145">
@@ -2456,11 +2404,9 @@
         <v>40603</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.01389594534050179</v>
-      </c>
-      <c r="D145" t="n">
-        <v>0.06513833741855633</v>
-      </c>
+        <v>0.1804873431899642</v>
+      </c>
+      <c r="D145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -2470,10 +2416,10 @@
         <v>40634</v>
       </c>
       <c r="C146" t="n">
-        <v>0.02341203703703704</v>
+        <v>0.1805070601851852</v>
       </c>
       <c r="D146" t="n">
-        <v>0.07369302077748349</v>
+        <v>0.1015047556127171</v>
       </c>
     </row>
     <row r="147">
@@ -2484,10 +2430,10 @@
         <v>40664</v>
       </c>
       <c r="C147" t="n">
-        <v>0.09359811827956989</v>
+        <v>0.1147234863031234</v>
       </c>
       <c r="D147" t="n">
-        <v>0.1023348193847717</v>
+        <v>0.1106206420318596</v>
       </c>
     </row>
     <row r="148">
@@ -2498,10 +2444,10 @@
         <v>40695</v>
       </c>
       <c r="C148" t="n">
-        <v>0.1595267210144928</v>
+        <v>0.02867165157004831</v>
       </c>
       <c r="D148" t="n">
-        <v>0.138124992533154</v>
+        <v>0.1280233417008712</v>
       </c>
     </row>
     <row r="149">
@@ -2512,10 +2458,10 @@
         <v>40725</v>
       </c>
       <c r="C149" t="n">
-        <v>0.2101451918377322</v>
+        <v>0.07647003963194356</v>
       </c>
       <c r="D149" t="n">
-        <v>0.1639068258004688</v>
+        <v>0.1402017326991881</v>
       </c>
     </row>
     <row r="150">
@@ -2526,10 +2472,10 @@
         <v>40756</v>
       </c>
       <c r="C150" t="n">
-        <v>0.1804873431899642</v>
+        <v>0.06799416686146174</v>
       </c>
       <c r="D150" t="n">
-        <v>0.1705552419036093</v>
+        <v>0.1401416955847071</v>
       </c>
     </row>
     <row r="151">
@@ -2540,10 +2486,10 @@
         <v>40787</v>
       </c>
       <c r="C151" t="n">
-        <v>0.1805070601851852</v>
+        <v>0.01517161631575987</v>
       </c>
       <c r="D151" t="n">
-        <v>0.1617244303168283</v>
+        <v>0.1330290490619771</v>
       </c>
     </row>
     <row r="152">
@@ -2553,11 +2499,9 @@
       <c r="B152" s="2" t="n">
         <v>40817</v>
       </c>
-      <c r="C152" t="n">
-        <v>0.1147234863031234</v>
-      </c>
+      <c r="C152" t="inlineStr"/>
       <c r="D152" t="n">
-        <v>0.1475187996027656</v>
+        <v>0.1297628608590791</v>
       </c>
     </row>
     <row r="153">
@@ -2568,10 +2512,10 @@
         <v>40848</v>
       </c>
       <c r="C153" t="n">
-        <v>0.02713958333333334</v>
+        <v>0.1720341666666667</v>
       </c>
       <c r="D153" t="n">
-        <v>0.134133026218329</v>
+        <v>0.1351143901144356</v>
       </c>
     </row>
     <row r="154">
@@ -2582,10 +2526,10 @@
         <v>40878</v>
       </c>
       <c r="C154" t="n">
-        <v>0.0758834005376344</v>
+        <v>0.1836221998207885</v>
       </c>
       <c r="D154" t="n">
-        <v>0.1198896234312756</v>
+        <v>0.142625124315731</v>
       </c>
     </row>
     <row r="155">
@@ -2596,10 +2540,10 @@
         <v>40909</v>
       </c>
       <c r="C155" t="n">
-        <v>0.06773670134019011</v>
+        <v>0.1337613425925926</v>
       </c>
       <c r="D155" t="n">
-        <v>0.1010383330857831</v>
+        <v>0.1414344857010308</v>
       </c>
     </row>
     <row r="156">
@@ -2610,10 +2554,10 @@
         <v>40940</v>
       </c>
       <c r="C156" t="n">
-        <v>0.009699832375478928</v>
+        <v>0.1694049059139785</v>
       </c>
       <c r="D156" t="n">
-        <v>0.08041348732647716</v>
+        <v>0.1281105755166291</v>
       </c>
     </row>
     <row r="157">
@@ -2624,11 +2568,9 @@
         <v>40969</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.03486771953405018</v>
-      </c>
-      <c r="D157" t="n">
-        <v>0.06897712411861462</v>
-      </c>
+        <v>0.184630376344086</v>
+      </c>
+      <c r="D157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -2638,10 +2580,10 @@
         <v>41000</v>
       </c>
       <c r="C158" t="n">
-        <v>0.1739144675925926</v>
+        <v>0.1503285879629629</v>
       </c>
       <c r="D158" t="n">
-        <v>0.07753180747754154</v>
+        <v>0.1047551607395665</v>
       </c>
     </row>
     <row r="159">
@@ -2652,10 +2594,10 @@
         <v>41030</v>
       </c>
       <c r="C159" t="n">
-        <v>0.1836221998207885</v>
+        <v>0.2148591824315259</v>
       </c>
       <c r="D159" t="n">
-        <v>0.1061736060848295</v>
+        <v>0.1138710471587089</v>
       </c>
     </row>
     <row r="160">
@@ -2666,10 +2608,10 @@
         <v>41061</v>
       </c>
       <c r="C160" t="n">
-        <v>0.1337613425925926</v>
+        <v>0.1547515617484367</v>
       </c>
       <c r="D160" t="n">
-        <v>0.1419637792332128</v>
+        <v>0.131273746827721</v>
       </c>
     </row>
     <row r="161">
@@ -2680,10 +2622,10 @@
         <v>41091</v>
       </c>
       <c r="C161" t="n">
-        <v>0.1694049059139785</v>
+        <v>0.2243510061165654</v>
       </c>
       <c r="D161" t="n">
-        <v>0.1677456125005269</v>
+        <v>0.1434521378260375</v>
       </c>
     </row>
     <row r="162">
@@ -2694,10 +2636,10 @@
         <v>41122</v>
       </c>
       <c r="C162" t="n">
-        <v>0.184630376344086</v>
+        <v>0.1861973440363152</v>
       </c>
       <c r="D162" t="n">
-        <v>0.1743940286036676</v>
+        <v>0.1433921007115565</v>
       </c>
     </row>
     <row r="163">
@@ -2708,10 +2650,10 @@
         <v>41153</v>
       </c>
       <c r="C163" t="n">
-        <v>0.1503285879629629</v>
+        <v>0.1769932766131815</v>
       </c>
       <c r="D163" t="n">
-        <v>0.1655632170168869</v>
+        <v>0.1362794541888267</v>
       </c>
     </row>
     <row r="164">
@@ -2722,10 +2664,10 @@
         <v>41183</v>
       </c>
       <c r="C164" t="n">
-        <v>0.2165593637992832</v>
+        <v>0.2017663451913619</v>
       </c>
       <c r="D164" t="n">
-        <v>0.1513575863028241</v>
+        <v>0.1330132659859286</v>
       </c>
     </row>
     <row r="165">
@@ -2736,10 +2678,10 @@
         <v>41214</v>
       </c>
       <c r="C165" t="n">
-        <v>0.1564018518518518</v>
+        <v>0.1269174129115096</v>
       </c>
       <c r="D165" t="n">
-        <v>0.1379718129183872</v>
+        <v>0.1383647952412853</v>
       </c>
     </row>
     <row r="166">
@@ -2750,10 +2692,10 @@
         <v>41244</v>
       </c>
       <c r="C166" t="n">
-        <v>0.2260241253701107</v>
+        <v>0.1706182795698925</v>
       </c>
       <c r="D166" t="n">
-        <v>0.1237284101313342</v>
+        <v>0.1458755294425805</v>
       </c>
     </row>
     <row r="167">
@@ -2764,10 +2706,10 @@
         <v>41275</v>
       </c>
       <c r="C167" t="n">
-        <v>0.2132633678120617</v>
+        <v>0.1837529017857143</v>
       </c>
       <c r="D167" t="n">
-        <v>0.1048771197858417</v>
+        <v>0.1446848908278802</v>
       </c>
     </row>
     <row r="168">
@@ -2778,10 +2720,10 @@
         <v>41306</v>
       </c>
       <c r="C168" t="n">
-        <v>0.1770297349465148</v>
+        <v>0.1730036220043573</v>
       </c>
       <c r="D168" t="n">
-        <v>0.08425227402653523</v>
+        <v>0.1313609806434789</v>
       </c>
     </row>
     <row r="169">
@@ -2792,10 +2734,10 @@
         <v>41334</v>
       </c>
       <c r="C169" t="n">
-        <v>0.216815171791548</v>
+        <v>0.1954156586021505</v>
       </c>
       <c r="D169" t="n">
-        <v>0.07281591081867289</v>
+        <v>0.114643661671518</v>
       </c>
     </row>
     <row r="170">
@@ -2806,10 +2748,10 @@
         <v>41365</v>
       </c>
       <c r="C170" t="n">
-        <v>0.1387461503623189</v>
+        <v>0.1514346064814815</v>
       </c>
       <c r="D170" t="n">
-        <v>0.08137059417760012</v>
+        <v>0.108005565866416</v>
       </c>
     </row>
     <row r="171">
@@ -2820,10 +2762,10 @@
         <v>41395</v>
       </c>
       <c r="C171" t="n">
-        <v>0.1706182795698925</v>
+        <v>0.1411407053529687</v>
       </c>
       <c r="D171" t="n">
-        <v>0.1100123927848883</v>
+        <v>0.1171214522855581</v>
       </c>
     </row>
     <row r="172">
@@ -2834,10 +2776,10 @@
         <v>41426</v>
       </c>
       <c r="C172" t="n">
-        <v>0.1837529017857143</v>
+        <v>0.2004628472222222</v>
       </c>
       <c r="D172" t="n">
-        <v>0.1458025659332715</v>
+        <v>0.1345241519545702</v>
       </c>
     </row>
     <row r="173">
@@ -2848,10 +2790,10 @@
         <v>41456</v>
       </c>
       <c r="C173" t="n">
-        <v>0.1730036220043573</v>
+        <v>0.03256225163627863</v>
       </c>
       <c r="D173" t="n">
-        <v>0.171584399200585</v>
+        <v>0.1467025429528871</v>
       </c>
     </row>
     <row r="174">
@@ -2862,10 +2804,10 @@
         <v>41487</v>
       </c>
       <c r="C174" t="n">
-        <v>0.1954156586021505</v>
+        <v>0.1369349353457436</v>
       </c>
       <c r="D174" t="n">
-        <v>0.178232815303726</v>
+        <v>0.1466425058384059</v>
       </c>
     </row>
     <row r="175">
@@ -2876,10 +2818,10 @@
         <v>41518</v>
       </c>
       <c r="C175" t="n">
-        <v>0.1514346064814815</v>
+        <v>0.0888768924689441</v>
       </c>
       <c r="D175" t="n">
-        <v>0.169402003716945</v>
+        <v>0.1395298593156761</v>
       </c>
     </row>
     <row r="176">
@@ -2890,10 +2832,10 @@
         <v>41548</v>
       </c>
       <c r="C176" t="n">
-        <v>0.1412427438834346</v>
+        <v>0.04715302614149915</v>
       </c>
       <c r="D176" t="n">
-        <v>0.1551963730028827</v>
+        <v>0.1362636711127781</v>
       </c>
     </row>
     <row r="177">
@@ -2904,10 +2846,10 @@
         <v>41579</v>
       </c>
       <c r="C177" t="n">
-        <v>0.2005553240740741</v>
+        <v>0.1310700231481481</v>
       </c>
       <c r="D177" t="n">
-        <v>0.1418105996184457</v>
+        <v>0.1416152003681349</v>
       </c>
     </row>
     <row r="178">
@@ -2918,10 +2860,10 @@
         <v>41609</v>
       </c>
       <c r="C178" t="n">
-        <v>0.0323791345254792</v>
+        <v>0.09909475806451613</v>
       </c>
       <c r="D178" t="n">
-        <v>0.1275671968313923</v>
+        <v>0.1491259345694299</v>
       </c>
     </row>
     <row r="179">
@@ -2932,10 +2874,10 @@
         <v>41640</v>
       </c>
       <c r="C179" t="n">
-        <v>0.1379502688172043</v>
+        <v>0.1460498842592593</v>
       </c>
       <c r="D179" t="n">
-        <v>0.1087159064858992</v>
+        <v>0.1479352959547298</v>
       </c>
     </row>
     <row r="180">
@@ -2946,10 +2888,10 @@
         <v>41671</v>
       </c>
       <c r="C180" t="n">
-        <v>0.0888768924689441</v>
+        <v>0.2066101190476191</v>
       </c>
       <c r="D180" t="n">
-        <v>0.08809106072659381</v>
+        <v>0.1346113857703281</v>
       </c>
     </row>
     <row r="181">
@@ -2960,10 +2902,10 @@
         <v>41699</v>
       </c>
       <c r="C181" t="n">
-        <v>0.04644881272401434</v>
+        <v>0.2188758083995637</v>
       </c>
       <c r="D181" t="n">
-        <v>0.07665469751873125</v>
+        <v>0.1178940667983677</v>
       </c>
     </row>
     <row r="182">
@@ -2974,10 +2916,10 @@
         <v>41730</v>
       </c>
       <c r="C182" t="n">
-        <v>0.1310700231481481</v>
+        <v>0.2360566072866344</v>
       </c>
       <c r="D182" t="n">
-        <v>0.08520938087765867</v>
+        <v>0.1112559709932655</v>
       </c>
     </row>
     <row r="183">
@@ -2988,10 +2930,10 @@
         <v>41760</v>
       </c>
       <c r="C183" t="n">
-        <v>0.09909475806451613</v>
+        <v>0.1399789426523297</v>
       </c>
       <c r="D183" t="n">
-        <v>0.1138511794849461</v>
+        <v>0.1203718574124078</v>
       </c>
     </row>
     <row r="184">
@@ -3002,10 +2944,10 @@
         <v>41791</v>
       </c>
       <c r="C184" t="n">
-        <v>0.1460498842592593</v>
+        <v>0.1711203703703704</v>
       </c>
       <c r="D184" t="n">
-        <v>0.1496413526333293</v>
+        <v>0.1377745570814204</v>
       </c>
     </row>
     <row r="185">
@@ -3016,10 +2958,10 @@
         <v>41821</v>
       </c>
       <c r="C185" t="n">
-        <v>0.2066101190476191</v>
+        <v>0.1805763158407355</v>
       </c>
       <c r="D185" t="n">
-        <v>0.1754231859006435</v>
+        <v>0.1499529480797365</v>
       </c>
     </row>
     <row r="186">
@@ -3030,10 +2972,10 @@
         <v>41852</v>
       </c>
       <c r="C186" t="n">
-        <v>0.2188758083995637</v>
+        <v>0.09243704223157238</v>
       </c>
       <c r="D186" t="n">
-        <v>0.1820716020037843</v>
+        <v>0.1498929109652555</v>
       </c>
     </row>
     <row r="187">
@@ -3044,10 +2986,10 @@
         <v>41883</v>
       </c>
       <c r="C187" t="n">
-        <v>0.2363898148148148</v>
+        <v>0.1344599443816697</v>
       </c>
       <c r="D187" t="n">
-        <v>0.1732407904170035</v>
+        <v>0.1427802644425255</v>
       </c>
     </row>
     <row r="188">
@@ -3058,10 +3000,10 @@
         <v>41913</v>
       </c>
       <c r="C188" t="n">
-        <v>0.1399789426523297</v>
+        <v>0.02842842140474065</v>
       </c>
       <c r="D188" t="n">
-        <v>0.1590351597029408</v>
+        <v>0.1395140762396276</v>
       </c>
     </row>
     <row r="189">
@@ -3072,10 +3014,10 @@
         <v>41944</v>
       </c>
       <c r="C189" t="n">
-        <v>0.1711335648148148</v>
+        <v>0.01307267776930248</v>
       </c>
       <c r="D189" t="n">
-        <v>0.1456493863185035</v>
+        <v>0.1448656054949842</v>
       </c>
     </row>
     <row r="190">
@@ -3086,10 +3028,10 @@
         <v>41974</v>
       </c>
       <c r="C190" t="n">
-        <v>0.1807482078853047</v>
+        <v>0.1181370967741935</v>
       </c>
       <c r="D190" t="n">
-        <v>0.1314059835314503</v>
+        <v>0.1523763396962795</v>
       </c>
     </row>
     <row r="191">
@@ -3100,10 +3042,10 @@
         <v>42005</v>
       </c>
       <c r="C191" t="n">
-        <v>0.09242102520648279</v>
+        <v>0.1246479166666667</v>
       </c>
       <c r="D191" t="n">
-        <v>0.1125546931859578</v>
+        <v>0.1511857010815795</v>
       </c>
     </row>
     <row r="192">
@@ -3114,10 +3056,10 @@
         <v>42036</v>
       </c>
       <c r="C192" t="n">
-        <v>0.1325373263888889</v>
+        <v>0.1664251792114695</v>
       </c>
       <c r="D192" t="n">
-        <v>0.0919298474266519</v>
+        <v>0.1378617908971779</v>
       </c>
     </row>
     <row r="193">
@@ -3128,10 +3070,10 @@
         <v>42064</v>
       </c>
       <c r="C193" t="n">
-        <v>0.02332734338475924</v>
+        <v>0.2005779569892473</v>
       </c>
       <c r="D193" t="n">
-        <v>0.0804934842187896</v>
+        <v>0.121144471925217</v>
       </c>
     </row>
     <row r="194">
@@ -3142,10 +3084,10 @@
         <v>42095</v>
       </c>
       <c r="C194" t="n">
-        <v>0.008935250603864735</v>
+        <v>0.199302662037037</v>
       </c>
       <c r="D194" t="n">
-        <v>0.08904816757771672</v>
+        <v>0.1145063761201151</v>
       </c>
     </row>
     <row r="195">
@@ -3156,10 +3098,10 @@
         <v>42125</v>
       </c>
       <c r="C195" t="n">
-        <v>0.1181370967741935</v>
+        <v>0.1920881285387772</v>
       </c>
       <c r="D195" t="n">
-        <v>0.1176899661850049</v>
+        <v>0.1236222625392575</v>
       </c>
     </row>
     <row r="196">
@@ -3170,10 +3112,10 @@
         <v>42156</v>
       </c>
       <c r="C196" t="n">
-        <v>0.1246479166666667</v>
+        <v>0.1378006006624213</v>
       </c>
       <c r="D196" t="n">
-        <v>0.1534801393333872</v>
+        <v>0.1410249622082697</v>
       </c>
     </row>
     <row r="197">
@@ -3184,10 +3126,10 @@
         <v>42186</v>
       </c>
       <c r="C197" t="n">
-        <v>0.1664251792114695</v>
+        <v>0.05151453856405131</v>
       </c>
       <c r="D197" t="n">
-        <v>0.1792619726007016</v>
+        <v>0.1532033532065861</v>
       </c>
     </row>
     <row r="198">
@@ -3198,10 +3140,10 @@
         <v>42217</v>
       </c>
       <c r="C198" t="n">
-        <v>0.2005779569892473</v>
+        <v>0.1763721939172581</v>
       </c>
       <c r="D198" t="n">
-        <v>0.1859103887038426</v>
+        <v>0.1531433160921051</v>
       </c>
     </row>
     <row r="199">
@@ -3212,10 +3154,10 @@
         <v>42248</v>
       </c>
       <c r="C199" t="n">
-        <v>0.199302662037037</v>
+        <v>0.1279701747265247</v>
       </c>
       <c r="D199" t="n">
-        <v>0.177079577117062</v>
+        <v>0.1460306695693751</v>
       </c>
     </row>
     <row r="200">
@@ -3226,10 +3168,10 @@
         <v>42278</v>
       </c>
       <c r="C200" t="n">
-        <v>0.1931934899485741</v>
+        <v>0.1638692335084546</v>
       </c>
       <c r="D200" t="n">
-        <v>0.1628739464029989</v>
+        <v>0.1427644813664771</v>
       </c>
     </row>
     <row r="201">
@@ -3240,10 +3182,10 @@
         <v>42309</v>
       </c>
       <c r="C201" t="n">
-        <v>0.1387020833333333</v>
+        <v>0.1290797622064342</v>
       </c>
       <c r="D201" t="n">
-        <v>0.149488173018562</v>
+        <v>0.1481160106218336</v>
       </c>
     </row>
     <row r="202">
@@ -3254,10 +3196,10 @@
         <v>42339</v>
       </c>
       <c r="C202" t="n">
-        <v>0.05129197796934866</v>
+        <v>0.1473044834027875</v>
       </c>
       <c r="D202" t="n">
-        <v>0.1352447702315085</v>
+        <v>0.1556267448231289</v>
       </c>
     </row>
     <row r="203">
@@ -3268,10 +3210,10 @@
         <v>42370</v>
       </c>
       <c r="C203" t="n">
-        <v>0.1785679206333142</v>
+        <v>0.1823986190332639</v>
       </c>
       <c r="D203" t="n">
-        <v>0.1163934798860164</v>
+        <v>0.1544361062084288</v>
       </c>
     </row>
     <row r="204">
@@ -3282,10 +3224,10 @@
         <v>42401</v>
       </c>
       <c r="C204" t="n">
-        <v>0.1279701747265247</v>
+        <v>0.1765708597233423</v>
       </c>
       <c r="D204" t="n">
-        <v>0.09576863412671047</v>
+        <v>0.1411121960240276</v>
       </c>
     </row>
     <row r="205">
@@ -3296,10 +3238,10 @@
         <v>42430</v>
       </c>
       <c r="C205" t="n">
-        <v>0.1638926579596195</v>
+        <v>0.1878485948058651</v>
       </c>
       <c r="D205" t="n">
-        <v>0.0843322709188479</v>
+        <v>0.1243948770520664</v>
       </c>
     </row>
     <row r="206">
@@ -3310,10 +3252,10 @@
         <v>42461</v>
       </c>
       <c r="C206" t="n">
-        <v>0.1290797622064342</v>
+        <v>0.1632430727099235</v>
       </c>
       <c r="D206" t="n">
-        <v>0.09288695427777476</v>
+        <v>0.1177567812469646</v>
       </c>
     </row>
     <row r="207">
@@ -3324,10 +3266,10 @@
         <v>42491</v>
       </c>
       <c r="C207" t="n">
-        <v>0.1473044834027875</v>
+        <v>0.1158329669460573</v>
       </c>
       <c r="D207" t="n">
-        <v>0.1215287528850627</v>
+        <v>0.1268726676661072</v>
       </c>
     </row>
     <row r="208">
@@ -3338,10 +3280,10 @@
         <v>42522</v>
       </c>
       <c r="C208" t="n">
-        <v>0.1823986190332639</v>
+        <v>0.1284707758409445</v>
       </c>
       <c r="D208" t="n">
-        <v>0.157318926033446</v>
+        <v>0.1442753673351189</v>
       </c>
     </row>
     <row r="209">
@@ -3351,11 +3293,9 @@
       <c r="B209" s="2" t="n">
         <v>42552</v>
       </c>
-      <c r="C209" t="n">
-        <v>0.1765708597233423</v>
-      </c>
+      <c r="C209" t="inlineStr"/>
       <c r="D209" t="n">
-        <v>0.1831007593007597</v>
+        <v>0.1564537583334355</v>
       </c>
     </row>
     <row r="210">
@@ -3366,10 +3306,10 @@
         <v>42583</v>
       </c>
       <c r="C210" t="n">
-        <v>0.1878485948058651</v>
+        <v>0.02664169902558929</v>
       </c>
       <c r="D210" t="n">
-        <v>0.1897491754039009</v>
+        <v>0.1563937212189545</v>
       </c>
     </row>
     <row r="211">
@@ -3379,11 +3319,9 @@
       <c r="B211" s="2" t="n">
         <v>42614</v>
       </c>
-      <c r="C211" t="n">
-        <v>0.1632430727099235</v>
-      </c>
+      <c r="C211" t="inlineStr"/>
       <c r="D211" t="n">
-        <v>0.1809183638171198</v>
+        <v>0.1492810746962247</v>
       </c>
     </row>
     <row r="212">
@@ -3394,10 +3332,10 @@
         <v>42644</v>
       </c>
       <c r="C212" t="n">
-        <v>0.1158329669460573</v>
+        <v>0.04003802378725748</v>
       </c>
       <c r="D212" t="n">
-        <v>0.166712733103057</v>
+        <v>0.1460148864933266</v>
       </c>
     </row>
     <row r="213">
@@ -3408,10 +3346,10 @@
         <v>42675</v>
       </c>
       <c r="C213" t="n">
-        <v>0.1287516106929977</v>
+        <v>0.02777264233839518</v>
       </c>
       <c r="D213" t="n">
-        <v>0.1533269597186205</v>
+        <v>0.1513664157486832</v>
       </c>
     </row>
     <row r="214">
@@ -3422,11 +3360,9 @@
         <v>42705</v>
       </c>
       <c r="C214" t="n">
-        <v>-0.02922450234131409</v>
-      </c>
-      <c r="D214" t="n">
-        <v>0.139083556931567</v>
-      </c>
+        <v>0.1280542126114247</v>
+      </c>
+      <c r="D214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -3436,10 +3372,10 @@
         <v>42736</v>
       </c>
       <c r="C215" t="n">
-        <v>0.02212582036178412</v>
+        <v>0.1187151201455556</v>
       </c>
       <c r="D215" t="n">
-        <v>0.1202322665860744</v>
+        <v>0.1576865113352783</v>
       </c>
     </row>
     <row r="216">
@@ -3450,11 +3386,9 @@
         <v>42767</v>
       </c>
       <c r="C216" t="n">
-        <v>-0.03841571172166418</v>
-      </c>
-      <c r="D216" t="n">
-        <v>0.09960742082676902</v>
-      </c>
+        <v>0.1682788185100597</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -3464,10 +3398,10 @@
         <v>42795</v>
       </c>
       <c r="C217" t="n">
-        <v>0.03955165522073643</v>
+        <v>0.1596779225277554</v>
       </c>
       <c r="D217" t="n">
-        <v>0.08817105761890623</v>
+        <v>0.1276452821789157</v>
       </c>
     </row>
     <row r="218">
@@ -3478,10 +3412,10 @@
         <v>42826</v>
       </c>
       <c r="C218" t="n">
-        <v>0.02620673049037742</v>
+        <v>0.1614900019210532</v>
       </c>
       <c r="D218" t="n">
-        <v>0.09672574097783333</v>
+        <v>0.1210071863738141</v>
       </c>
     </row>
     <row r="219">
@@ -3492,10 +3426,10 @@
         <v>42856</v>
       </c>
       <c r="C219" t="n">
-        <v>0.1280542126114247</v>
+        <v>0.1166385527312485</v>
       </c>
       <c r="D219" t="n">
-        <v>0.1253675395851206</v>
+        <v>0.1301230727929565</v>
       </c>
     </row>
     <row r="220">
@@ -3506,10 +3440,10 @@
         <v>42887</v>
       </c>
       <c r="C220" t="n">
-        <v>0.1187151201455556</v>
+        <v>0.1435479002169676</v>
       </c>
       <c r="D220" t="n">
-        <v>0.1611577127335038</v>
+        <v>0.1475257724619686</v>
       </c>
     </row>
     <row r="221">
@@ -3520,10 +3454,10 @@
         <v>42917</v>
       </c>
       <c r="C221" t="n">
-        <v>0.1682788185100597</v>
+        <v>0.1168275426540435</v>
       </c>
       <c r="D221" t="n">
-        <v>0.1869395460008187</v>
+        <v>0.1597041634602849</v>
       </c>
     </row>
     <row r="222">
@@ -3534,10 +3468,10 @@
         <v>42948</v>
       </c>
       <c r="C222" t="n">
-        <v>0.1596779225277554</v>
+        <v>0.1329146945915154</v>
       </c>
       <c r="D222" t="n">
-        <v>0.1935879621039591</v>
+        <v>0.1596441263458041</v>
       </c>
     </row>
     <row r="223">
@@ -3548,10 +3482,10 @@
         <v>42979</v>
       </c>
       <c r="C223" t="n">
-        <v>0.1614900019210532</v>
+        <v>0.1075527565550223</v>
       </c>
       <c r="D223" t="n">
-        <v>0.1847571505171783</v>
+        <v>0.1525314798230741</v>
       </c>
     </row>
     <row r="224">
@@ -3561,11 +3495,9 @@
       <c r="B224" s="2" t="n">
         <v>43009</v>
       </c>
-      <c r="C224" t="n">
-        <v>0.1166385527312485</v>
-      </c>
+      <c r="C224" t="inlineStr"/>
       <c r="D224" t="n">
-        <v>0.1705515198031156</v>
+        <v>0.1492652916201761</v>
       </c>
     </row>
     <row r="225">
@@ -3576,10 +3508,10 @@
         <v>43040</v>
       </c>
       <c r="C225" t="n">
-        <v>0.1435479002169676</v>
+        <v>0.1055254188855903</v>
       </c>
       <c r="D225" t="n">
-        <v>0.1571657464186786</v>
+        <v>0.1546168208755326</v>
       </c>
     </row>
     <row r="226">
@@ -3590,10 +3522,10 @@
         <v>43070</v>
       </c>
       <c r="C226" t="n">
-        <v>0.1168275426540435</v>
+        <v>0.1614630130282056</v>
       </c>
       <c r="D226" t="n">
-        <v>0.1429223436316256</v>
+        <v>0.162127555076828</v>
       </c>
     </row>
     <row r="227">
@@ -3604,10 +3536,10 @@
         <v>43101</v>
       </c>
       <c r="C227" t="n">
-        <v>0.1330720994394571</v>
+        <v>0.1843752165729167</v>
       </c>
       <c r="D227" t="n">
-        <v>0.124071053286133</v>
+        <v>0.1609369164621277</v>
       </c>
     </row>
     <row r="228">
@@ -3618,10 +3550,10 @@
         <v>43132</v>
       </c>
       <c r="C228" t="n">
-        <v>0.1043207482416543</v>
+        <v>0.2060954938375896</v>
       </c>
       <c r="D228" t="n">
-        <v>0.1034462075268271</v>
+        <v>0.1476130062777262</v>
       </c>
     </row>
     <row r="229">
@@ -3632,11 +3564,9 @@
         <v>43160</v>
       </c>
       <c r="C229" t="n">
-        <v>0.2667772267862903</v>
-      </c>
-      <c r="D229" t="n">
-        <v>0.09200984431896458</v>
-      </c>
+        <v>0.202801496308815</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -3646,10 +3576,10 @@
         <v>43191</v>
       </c>
       <c r="C230" t="n">
-        <v>0.1055254188855903</v>
+        <v>0.1739635053356381</v>
       </c>
       <c r="D230" t="n">
-        <v>0.1005645276778914</v>
+        <v>0.1242575915006635</v>
       </c>
     </row>
     <row r="231">
@@ -3660,10 +3590,10 @@
         <v>43221</v>
       </c>
       <c r="C231" t="n">
-        <v>0.1614630130282056</v>
+        <v>0.1134775936986895</v>
       </c>
       <c r="D231" t="n">
-        <v>0.1292063262851793</v>
+        <v>0.1333734779198058</v>
       </c>
     </row>
     <row r="232">
@@ -3674,10 +3604,10 @@
         <v>43252</v>
       </c>
       <c r="C232" t="n">
-        <v>0.1843752165729167</v>
+        <v>0.1445278019647685</v>
       </c>
       <c r="D232" t="n">
-        <v>0.1649964994335635</v>
+        <v>0.1507761775888179</v>
       </c>
     </row>
     <row r="233">
@@ -3688,10 +3618,10 @@
         <v>43282</v>
       </c>
       <c r="C233" t="n">
-        <v>0.2060954938375896</v>
+        <v>0.1453463387964265</v>
       </c>
       <c r="D233" t="n">
-        <v>0.1907783327008768</v>
+        <v>0.1629545685871345</v>
       </c>
     </row>
     <row r="234">
@@ -3702,10 +3632,10 @@
         <v>43313</v>
       </c>
       <c r="C234" t="n">
-        <v>0.202801496308815</v>
+        <v>0.1938327921518322</v>
       </c>
       <c r="D234" t="n">
-        <v>0.1974267488040175</v>
+        <v>0.1628945314726537</v>
       </c>
     </row>
     <row r="235">
@@ -3716,10 +3646,10 @@
         <v>43344</v>
       </c>
       <c r="C235" t="n">
-        <v>0.1739635053356381</v>
+        <v>0.1081819694042287</v>
       </c>
       <c r="D235" t="n">
-        <v>0.1885959372172364</v>
+        <v>0.1557818849499237</v>
       </c>
     </row>
     <row r="236">
@@ -3730,10 +3660,10 @@
         <v>43374</v>
       </c>
       <c r="C236" t="n">
-        <v>0.1134775936986895</v>
+        <v>0.06367870910143175</v>
       </c>
       <c r="D236" t="n">
-        <v>0.1743903065031741</v>
+        <v>0.1525156967470256</v>
       </c>
     </row>
     <row r="237">
@@ -3744,10 +3674,10 @@
         <v>43405</v>
       </c>
       <c r="C237" t="n">
-        <v>0.144625695471713</v>
+        <v>0.1156241911371339</v>
       </c>
       <c r="D237" t="n">
-        <v>0.1610045331187371</v>
+        <v>0.1578672260023824</v>
       </c>
     </row>
     <row r="238">
@@ -3758,10 +3688,10 @@
         <v>43435</v>
       </c>
       <c r="C238" t="n">
-        <v>0.1456000418293858</v>
+        <v>0.1386364510644825</v>
       </c>
       <c r="D238" t="n">
-        <v>0.1467611303316836</v>
+        <v>0.1653779602036774</v>
       </c>
     </row>
     <row r="239">
@@ -3772,10 +3702,10 @@
         <v>43466</v>
       </c>
       <c r="C239" t="n">
-        <v>0.1959516959920312</v>
+        <v>0.1533586596278241</v>
       </c>
       <c r="D239" t="n">
-        <v>0.1279098399861917</v>
+        <v>0.1641873215889773</v>
       </c>
     </row>
     <row r="240">
@@ -3786,10 +3716,10 @@
         <v>43497</v>
       </c>
       <c r="C240" t="n">
-        <v>0.1082939650763517</v>
+        <v>0.1907152691476254</v>
       </c>
       <c r="D240" t="n">
-        <v>0.1072849942268857</v>
+        <v>0.1508634114045755</v>
       </c>
     </row>
     <row r="241">
@@ -3800,10 +3730,10 @@
         <v>43525</v>
       </c>
       <c r="C241" t="n">
-        <v>0.06298436307479839</v>
+        <v>0.1651352956044243</v>
       </c>
       <c r="D241" t="n">
-        <v>0.09584863101902288</v>
+        <v>0.134146092432615</v>
       </c>
     </row>
     <row r="242">
@@ -3814,10 +3744,10 @@
         <v>43556</v>
       </c>
       <c r="C242" t="n">
-        <v>0.1139334613802546</v>
+        <v>0.1417616747253357</v>
       </c>
       <c r="D242" t="n">
-        <v>0.1044033143779494</v>
+        <v>0.127507996627513</v>
       </c>
     </row>
     <row r="243">
@@ -3828,10 +3758,10 @@
         <v>43586</v>
       </c>
       <c r="C243" t="n">
-        <v>0.1386364510644825</v>
+        <v>0.1750913905127688</v>
       </c>
       <c r="D243" t="n">
-        <v>0.1330451129852381</v>
+        <v>0.1366238830466555</v>
       </c>
     </row>
     <row r="244">
@@ -3842,10 +3772,10 @@
         <v>43617</v>
       </c>
       <c r="C244" t="n">
-        <v>0.1533586596278241</v>
+        <v>0.222848511724274</v>
       </c>
       <c r="D244" t="n">
-        <v>0.1688352861336213</v>
+        <v>0.1540265827156672</v>
       </c>
     </row>
     <row r="245">
@@ -3855,11 +3785,9 @@
       <c r="B245" s="2" t="n">
         <v>43647</v>
       </c>
-      <c r="C245" t="n">
-        <v>0.1907152691476254</v>
-      </c>
+      <c r="C245" t="inlineStr"/>
       <c r="D245" t="n">
-        <v>0.1946171194009353</v>
+        <v>0.1662049737139839</v>
       </c>
     </row>
     <row r="246">
@@ -3869,11 +3797,9 @@
       <c r="B246" s="2" t="n">
         <v>43678</v>
       </c>
-      <c r="C246" t="n">
-        <v>0.1651352956044243</v>
-      </c>
+      <c r="C246" t="inlineStr"/>
       <c r="D246" t="n">
-        <v>0.2012655355040759</v>
+        <v>0.1661449365995031</v>
       </c>
     </row>
     <row r="247">
@@ -3883,11 +3809,9 @@
       <c r="B247" s="2" t="n">
         <v>43709</v>
       </c>
-      <c r="C247" t="n">
-        <v>0.1417616747253357</v>
-      </c>
+      <c r="C247" t="inlineStr"/>
       <c r="D247" t="n">
-        <v>0.1924347239172949</v>
+        <v>0.1590322900767733</v>
       </c>
     </row>
     <row r="248">
@@ -3897,11 +3821,9 @@
       <c r="B248" s="2" t="n">
         <v>43739</v>
       </c>
-      <c r="C248" t="n">
-        <v>0.1750913905127688</v>
-      </c>
+      <c r="C248" t="inlineStr"/>
       <c r="D248" t="n">
-        <v>0.1782290932032326</v>
+        <v>0.1557661018738751</v>
       </c>
     </row>
     <row r="249">
@@ -3911,11 +3833,9 @@
       <c r="B249" s="2" t="n">
         <v>43770</v>
       </c>
-      <c r="C249" t="n">
-        <v>0.222848511724274</v>
-      </c>
+      <c r="C249" t="inlineStr"/>
       <c r="D249" t="n">
-        <v>0.1648433198187953</v>
+        <v>0.1611176311292318</v>
       </c>
     </row>
   </sheetData>
